--- a/Sable_Test/Sable_2015/SABL_COMBO_2015_NIRS_Scanning_Session_Report_For_NWC.xlsx
+++ b/Sable_Test/Sable_2015/SABL_COMBO_2015_NIRS_Scanning_Session_Report_For_NWC.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SIDT\Sable_Test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SIDT\Sable_Test\2015_Scans\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -764,7 +764,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -816,6 +816,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -50817,7 +50818,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A25" sqref="A25:XFD33"/>
+      <selection pane="bottomLeft" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -51141,6 +51142,9 @@
       <c r="F5" s="25">
         <v>102052424</v>
       </c>
+      <c r="H5" s="33">
+        <v>0.03</v>
+      </c>
       <c r="J5" s="25" t="s">
         <v>81</v>
       </c>
@@ -51172,6 +51176,9 @@
       </c>
       <c r="F6" s="25">
         <v>102052425</v>
+      </c>
+      <c r="H6" s="33">
+        <v>0.03</v>
       </c>
       <c r="J6" s="25" t="s">
         <v>81</v>
@@ -51395,6 +51402,9 @@
       <c r="F12" s="25">
         <v>102052431</v>
       </c>
+      <c r="H12" s="25">
+        <v>0.03</v>
+      </c>
       <c r="J12" s="25" t="s">
         <v>81</v>
       </c>
@@ -51426,6 +51436,9 @@
       </c>
       <c r="F13" s="25">
         <v>102052432</v>
+      </c>
+      <c r="H13" s="25">
+        <v>0.03</v>
       </c>
       <c r="J13" s="25" t="s">
         <v>81</v>
@@ -51497,6 +51510,9 @@
       <c r="F15" s="25">
         <v>102052434</v>
       </c>
+      <c r="H15" s="25">
+        <v>0.03</v>
+      </c>
       <c r="J15" s="25" t="s">
         <v>81</v>
       </c>
@@ -51567,6 +51583,9 @@
       <c r="F17" s="25">
         <v>102052436</v>
       </c>
+      <c r="H17" s="25">
+        <v>0.03</v>
+      </c>
       <c r="J17" s="25" t="s">
         <v>81</v>
       </c>
@@ -51637,6 +51656,9 @@
       <c r="F19" s="25">
         <v>102052438</v>
       </c>
+      <c r="H19" s="25">
+        <v>0.03</v>
+      </c>
       <c r="J19" s="25" t="s">
         <v>81</v>
       </c>
@@ -51669,6 +51691,9 @@
       <c r="F20" s="25">
         <v>102052439</v>
       </c>
+      <c r="H20" s="25">
+        <v>0.03</v>
+      </c>
       <c r="J20" s="25" t="s">
         <v>81</v>
       </c>
@@ -51701,6 +51726,9 @@
       <c r="F21" s="25">
         <v>102052440</v>
       </c>
+      <c r="H21" s="25">
+        <v>0.03</v>
+      </c>
       <c r="J21" s="25" t="s">
         <v>81</v>
       </c>
@@ -51732,6 +51760,9 @@
       </c>
       <c r="F22" s="25">
         <v>102052441</v>
+      </c>
+      <c r="H22" s="25">
+        <v>0.03</v>
       </c>
       <c r="J22" s="25" t="s">
         <v>81</v>
